--- a/XLSX/EnumTable.xlsx
+++ b/XLSX/EnumTable.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7DA0C-3FDE-4807-B723-6715B055E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810ADB2E-F698-4D5C-B67F-C1542CC01EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="29595" yWindow="0" windowWidth="24375" windowHeight="15225" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
+    <sheet name="@EItemType" sheetId="2" r:id="rId2"/>
+    <sheet name="@EUseType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>즉발형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접 공격형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +120,18 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0FF1C-F93B-4042-B9B8-0631CE9B8B49}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,15 +567,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -579,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -601,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -612,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -623,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -634,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -645,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,10 +666,119 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E51DA1-9A79-49ED-AFBC-3A54C1919827}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6DFC86-B03B-4231-B1FF-8467F6785FD6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/EnumTable.xlsx
+++ b/XLSX/EnumTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810ADB2E-F698-4D5C-B67F-C1542CC01EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD052CC4-F895-4316-923B-47E1F2364C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="0" windowWidth="24375" windowHeight="15225" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>즉발형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>근접 공격형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,15 +127,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 즉시 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +560,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,15 +575,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -589,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -611,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -622,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -633,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -644,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -666,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -679,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E51DA1-9A79-49ED-AFBC-3A54C1919827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A908870-ED6D-4D79-9D8D-8C32703945F9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,15 +701,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -715,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -739,29 +747,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6DFC86-B03B-4231-B1FF-8467F6785FD6}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE018AE-D3FB-4DEA-A4D4-BFC3FB2F4FDB}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -775,10 +787,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/EnumTable.xlsx
+++ b/XLSX/EnumTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD052CC4-F895-4316-923B-47E1F2364C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9720C8-A740-4D99-95A6-F23494423376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접 공격형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>재화 즉시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,15 +575,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -652,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A908870-ED6D-4D79-9D8D-8C32703945F9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,15 +701,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE018AE-D3FB-4DEA-A4D4-BFC3FB2F4FDB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,15 +765,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -798,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/EnumTable.xlsx
+++ b/XLSX/EnumTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9720C8-A740-4D99-95A6-F23494423376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745FECE9-2D1D-425D-8200-048280150F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/EnumTable.xlsx
+++ b/XLSX/EnumTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745FECE9-2D1D-425D-8200-048280150F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE489C-D669-4993-A620-8FC4FAF27E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="29715" yWindow="4575" windowWidth="21600" windowHeight="12645" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
@@ -217,11 +217,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0FF1C-F93B-4042-B9B8-0631CE9B8B49}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE018AE-D3FB-4DEA-A4D4-BFC3FB2F4FDB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
